--- a/LIMIT_BREAKOUT/CAM_OUTPUTS/BOM/LIMIT_SW_Breakout_CAM_OUTPUT_A8.xlsx
+++ b/LIMIT_BREAKOUT/CAM_OUTPUTS/BOM/LIMIT_SW_Breakout_CAM_OUTPUT_A8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\cnc_projects\LIMIT_BREAKOUT\Project Outputs for LIMIT_SW_Breakout\LIMIT_SW_Breakout_UPLOAD_GERBERS_A8\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\EST_Accessory_PCB\LIMIT_BREAKOUT\CAM_OUTPUTS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,21 +113,12 @@
     <t>C305983</t>
   </si>
   <si>
-    <t>AO3400A N</t>
-  </si>
-  <si>
-    <t>MOS(场效应管)</t>
-  </si>
-  <si>
     <t>Q1, Q2</t>
   </si>
   <si>
     <t>SOT-23-3L</t>
   </si>
   <si>
-    <t>C700953</t>
-  </si>
-  <si>
     <t>MMBT5401 2L</t>
   </si>
   <si>
@@ -174,6 +165,15 @@
   </si>
   <si>
     <t>C25804</t>
+  </si>
+  <si>
+    <t>C2849571</t>
+  </si>
+  <si>
+    <t>AP5N10S</t>
+  </si>
+  <si>
+    <t>N Mosfet</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,19 +651,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -669,19 +671,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -689,19 +691,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -709,19 +711,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -729,19 +731,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
